--- a/unine/pos/metadata/original/unine_dbgi_ALC_pos_metadata.xlsx
+++ b/unine/pos/metadata/original/unine_dbgi_ALC_pos_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lecab\gitrepo\plantes_ornementales\ornamental\Unine\pos\metadata\original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D5F42F-A389-4E3A-BC70-F7818F5772DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF4F43-CEE0-4D40-AD36-A2B430D59052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="0" windowWidth="7920" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3A7122-0EFA-404D-B507-9949E290F87C}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,8 +685,8 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
-        <f>"230605_ED_dbgi_"&amp;B2&amp;"_01_03_nr8cent.mzML"</f>
-        <v>230605_ED_dbgi_dbgi_001139_01_03_nr8cent.mzML</v>
+        <f>"230605_ED_"&amp;B2&amp;"_01_03_nr8cent.mzML"</f>
+        <v>230605_ED_dbgi_001139_01_03_nr8cent.mzML</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -706,8 +706,8 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
-        <f t="shared" ref="A3:A47" si="0">"230605_ED_dbgi_"&amp;B3&amp;"_01_03_nr8cent.mzML"</f>
-        <v>230605_ED_dbgi_dbgi_001140_01_03_nr8cent.mzML</v>
+        <f t="shared" ref="A3:A39" si="0">"230605_ED_"&amp;B3&amp;"_01_03_nr8cent.mzML"</f>
+        <v>230605_ED_dbgi_001140_01_03_nr8cent.mzML</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -728,7 +728,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001141_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001141_01_03_nr8cent.mzML</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -749,7 +749,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001142_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001142_01_03_nr8cent.mzML</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -770,7 +770,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001143_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001143_01_03_nr8cent.mzML</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -791,7 +791,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001144_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001144_01_03_nr8cent.mzML</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -812,7 +812,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001145_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001145_01_03_nr8cent.mzML</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -833,7 +833,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001146_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001146_01_03_nr8cent.mzML</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -854,7 +854,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001147_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001147_01_03_nr8cent.mzML</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -875,7 +875,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001148_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001148_01_03_nr8cent.mzML</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -896,7 +896,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001149_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001149_01_03_nr8cent.mzML</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -917,7 +917,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001150_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001150_01_03_nr8cent.mzML</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -938,7 +938,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001151_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001151_01_03_nr8cent.mzML</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -959,7 +959,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001152_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001152_01_03_nr8cent.mzML</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>23</v>
@@ -980,7 +980,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001153_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001153_01_03_nr8cent.mzML</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
@@ -1001,7 +1001,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001156_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001156_01_03_nr8cent.mzML</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>25</v>
@@ -1022,7 +1022,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001157_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001157_01_03_nr8cent.mzML</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
@@ -1043,7 +1043,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001158_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001158_01_03_nr8cent.mzML</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -1064,7 +1064,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001159_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001159_01_03_nr8cent.mzML</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>28</v>
@@ -1085,7 +1085,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001160_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001160_01_03_nr8cent.mzML</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
@@ -1106,7 +1106,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001161_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001161_01_03_nr8cent.mzML</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>30</v>
@@ -1127,7 +1127,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001162_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001162_01_03_nr8cent.mzML</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>31</v>
@@ -1148,7 +1148,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001163_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001163_01_03_nr8cent.mzML</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>32</v>
@@ -1169,7 +1169,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001166_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001166_01_03_nr8cent.mzML</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>33</v>
@@ -1190,7 +1190,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001169_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001169_01_03_nr8cent.mzML</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>34</v>
@@ -1211,7 +1211,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001173_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001173_01_03_nr8cent.mzML</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -1232,7 +1232,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001174_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001174_01_03_nr8cent.mzML</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>37</v>
@@ -1253,7 +1253,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001175_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001175_01_03_nr8cent.mzML</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>38</v>
@@ -1274,7 +1274,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001176_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001176_01_03_nr8cent.mzML</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>39</v>
@@ -1295,7 +1295,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001177_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001177_01_03_nr8cent.mzML</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>40</v>
@@ -1316,7 +1316,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001178_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001178_01_03_nr8cent.mzML</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>41</v>
@@ -1337,7 +1337,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001182_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001182_01_03_nr8cent.mzML</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>42</v>
@@ -1358,7 +1358,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001183_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001183_01_03_nr8cent.mzML</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>43</v>
@@ -1379,7 +1379,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001184_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001184_01_03_nr8cent.mzML</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>44</v>
@@ -1400,7 +1400,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001185_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001185_01_03_nr8cent.mzML</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>45</v>
@@ -1421,7 +1421,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001186_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001186_01_03_nr8cent.mzML</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>46</v>
@@ -1442,7 +1442,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001187_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001187_01_03_nr8cent.mzML</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>47</v>
@@ -1463,7 +1463,7 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>230605_ED_dbgi_dbgi_001188_01_03_nr8cent.mzML</v>
+        <v>230605_ED_dbgi_001188_01_03_nr8cent.mzML</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>48</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A3:A40" si="1">"230605_ED_dbgi_"&amp;B40&amp;"_01_03_nr8cent.mzML"</f>
         <v>230605_ED_dbgi_Blank_ALC_01_03_nr8cent.mzML</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1546,7 +1546,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="str">
-        <f t="shared" ref="A43:A46" si="1">"230605_ED_ALC_"&amp;B43&amp;"_nr8cent.mzML"</f>
+        <f t="shared" ref="A43:A46" si="2">"230605_ED_ALC_"&amp;B43&amp;"_nr8cent.mzML"</f>
         <v>230605_ED_ALC_QC_4_nr8cent.mzML</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230605_ED_ALC_QC_5_nr8cent.mzML</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1588,7 +1588,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230605_ED_ALC_QC_6_nr8cent.mzML</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1609,7 +1609,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230605_ED_ALC_QC_7_nr8cent.mzML</v>
       </c>
       <c r="B46" s="2" t="s">
